--- a/HealthScore/Model(1).xlsx
+++ b/HealthScore/Model(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfxba\Desktop\Desafio CSharp Excel\HealthScore\HealthScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235D5F9-7D17-4462-B3CC-7D5E5982CB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E4B93-A443-426A-AA98-9F5F95E19F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{612C2E5C-8075-A84B-AA81-0F6053976093}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{612C2E5C-8075-A84B-AA81-0F6053976093}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Profiles</t>
   </si>
@@ -636,7 +636,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="A3:H14"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -668,251 +668,91 @@
       <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>-7</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>-4</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>-2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>-2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>3</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
-        <v>-13</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <v>-9</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>-9</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>3</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
